--- a/운동훈련.xlsx
+++ b/운동훈련.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\박준호\fire1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shfkd\Desktop\fire1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9660D24-40DF-494E-80F5-C5D0B178E723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3364BBDA-7B07-400B-A122-7ED65F3B5BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B1F279FB-FBD2-4BA3-A108-F1675A85D8A4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1F279FB-FBD2-4BA3-A108-F1675A85D8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="227">
   <si>
     <t>날짜</t>
   </si>
@@ -868,12 +868,35 @@
   <si>
     <t>템포 런 45분 (보스턴12)</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역도(스내치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>훈련)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,6 +953,27 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1086,7 +1130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1132,15 +1176,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1162,10 +1197,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,6 +1211,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1493,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322DB438-C279-4F3F-9395-5D1C3B844254}">
   <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1506,19 +1553,19 @@
   <sheetData>
     <row r="2" spans="2:11" ht="17.25" thickBot="1"/>
     <row r="3" spans="2:11" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1535,37 +1582,37 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
       <c r="H4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="2:11" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>9</v>
+      <c r="F5" s="30" t="s">
+        <v>226</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
@@ -1579,13 +1626,13 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="72" customHeight="1" thickBot="1">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="19" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>219</v>
       </c>
       <c r="H6" s="2"/>
@@ -1600,36 +1647,36 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="17"/>
       <c r="H7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="2:11" ht="72" customHeight="1" thickBot="1">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="2"/>
@@ -1644,15 +1691,15 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="2"/>
@@ -1667,11 +1714,11 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>219</v>
       </c>
       <c r="H10" s="2"/>
@@ -1686,19 +1733,19 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="2"/>
@@ -1713,38 +1760,38 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="72" customHeight="1" thickBot="1">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>219</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="2:11" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="2"/>
@@ -1759,13 +1806,13 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F14" s="20" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>219</v>
       </c>
       <c r="H14" s="2"/>
@@ -1780,19 +1827,19 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="57.75" customHeight="1" thickBot="1">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="2"/>
@@ -1807,13 +1854,13 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="19" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="16" t="s">
         <v>219</v>
       </c>
       <c r="H16" s="2"/>
@@ -1828,13 +1875,13 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="57.75" customHeight="1" thickBot="1">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" s="20"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="17"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
         <v>92</v>
@@ -1847,36 +1894,36 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
       <c r="H18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="2:11" ht="72" customHeight="1" thickBot="1">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="2"/>
@@ -1891,15 +1938,15 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="19" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="2"/>
@@ -1914,11 +1961,11 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="57.75" customHeight="1" thickBot="1">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
         <v>219</v>
       </c>
       <c r="H21" s="2"/>
@@ -1933,19 +1980,19 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="2"/>
@@ -1960,38 +2007,38 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F23" s="20" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>219</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="2:11" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H24" s="2"/>
@@ -2006,13 +2053,13 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F25" s="20" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>219</v>
       </c>
       <c r="H25" s="2"/>
@@ -2027,19 +2074,19 @@
       </c>
     </row>
     <row r="26" spans="2:11" ht="72" customHeight="1" thickBot="1">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E26" s="18" t="s">
+      <c r="D26" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H26" s="2"/>
@@ -2054,32 +2101,32 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="19" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="16" t="s">
         <v>219</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="17"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
     </row>
     <row r="28" spans="2:11" ht="72" customHeight="1" thickBot="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F28" s="20"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="17"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
         <v>121</v>
@@ -2092,19 +2139,19 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="2"/>
@@ -2119,378 +2166,414 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F30" s="19" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="72" customHeight="1" thickBot="1">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="2:6" ht="72" customHeight="1">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F34" s="20" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="17" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="57.75" customHeight="1">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" s="20" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="43.5" customHeight="1">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" s="18" t="s">
+      <c r="D37" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="28.5">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="19" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="16" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F39" s="20"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="28.5">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" s="19" t="s">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F44" s="20" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" s="17" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6" ht="28.5">
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" s="20" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" s="17" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" s="18" t="s">
+      <c r="D48" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="28.5">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="19" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="16" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F50" s="20"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="28.5">
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F52" s="19" t="s">
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F52" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20" t="s">
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F55" s="20" t="s">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F55" s="17" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="28.5">
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F57" s="20" t="s">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" s="17" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D43:D44"/>
@@ -2498,53 +2581,17 @@
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
